--- a/medicine/Sexualité et sexologie/Aphrodisia_(série_télévisée)/Aphrodisia_(série_télévisée).xlsx
+++ b/medicine/Sexualité et sexologie/Aphrodisia_(série_télévisée)/Aphrodisia_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aphrodisia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Aphrodisia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aphrodisia ou Secrets de femmes est une série télévisée française érotique soft en 134 épisodes de 26 minutes. Elle a été diffusée du 18 mars 1995 au 15 mai 1997 sur M6 et rediffusée sur Paris Première et RTL9[1]. Au Québec, elle a été diffusée sur Télévision Quatre-Saisons dans l'émission Bleu Nuit.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aphrodisia ou Secrets de femmes est une série télévisée française érotique soft en 134 épisodes de 26 minutes. Elle a été diffusée du 18 mars 1995 au 15 mai 1997 sur M6 et rediffusée sur Paris Première et RTL9. Au Québec, elle a été diffusée sur Télévision Quatre-Saisons dans l'émission Bleu Nuit.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aphrodisia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Aphrodisia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles s'appellent Jade, Lucie, Jenna, Valérie... Cette série anthologique a pour postulat d'illustrer la vie sentimentale et sexuelle de jeunes femmes indépendantes et modernes d'horizons très divers, de Paris à Rome, en passant par Los Angeles jusqu'aux Antilles. Sur le ton de la confidence, elles nous livrent leur sensualité avec innocence, provocation et séduction.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aphrodisia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Aphrodisia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Aphrodisia
 Titre original : Secrets de femmes
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aphrodisia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Aphrodisia_(série_télévisée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première saison (1995)
+          <t>Première saison (1995)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cybersex
 Maureen, la petite voleuse d'images
 Un voyage peut en cacher un autre
@@ -654,7 +676,43 @@
 Chambre d'hôtel
 La Lettre
 La Veuve noire
-Deuxième saison (1996-1997)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aphrodisia_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphrodisia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Deuxième saison (1996-1997)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Un pas vers le bonheur
 Séparation
 Vie privée
